--- a/results/pvalue_SIDER_all_DGI_AUROCperdrug.xlsx
+++ b/results/pvalue_SIDER_all_DGI_AUROCperdrug.xlsx
@@ -626,22 +626,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>26.009</t>
+          <t>32.205</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>24.546</t>
+          <t>30.671</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>27.56</t>
+          <t>37.202</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>22.045</t>
+          <t>27.633</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -651,7 +651,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.001</t>
+          <t>0.000</t>
         </is>
       </c>
     </row>
@@ -663,27 +663,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>20.734</t>
+          <t>21.098</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>20.727</t>
+          <t>21.101</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>20.972</t>
+          <t>21.343</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>21.693</t>
+          <t>22.117</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>8.891</t>
+          <t>12.543</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
